--- a/REGULAR/INOCENCIO, REYMARK STA. ANA.xlsx
+++ b/REGULAR/INOCENCIO, REYMARK STA. ANA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>PERIOD</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -2989,7 +2992,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A49" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
+      <selection pane="bottomLeft" activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3154,7 +3157,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>44.957999999999998</v>
+        <v>47.457999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3164,7 +3167,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>58.957999999999998</v>
+        <v>60.457999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4247,37 +4250,51 @@
       <c r="A63" s="40">
         <v>45170</v>
       </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="13"/>
+      <c r="B63" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H63" s="39"/>
+      <c r="G63" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H63" s="39">
+        <v>1</v>
+      </c>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20"/>
+      <c r="K63" s="48">
+        <v>45180</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>45200</v>
       </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="13"/>
+      <c r="B64" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G64" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
+      <c r="K64" s="48">
+        <v>45205</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
@@ -5643,7 +5660,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>103.916</v>
+        <v>107.916</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
